--- a/categorias_etnia.xlsx
+++ b/categorias_etnia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new user\Desktop\CASEN_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ds\ds_casen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD246D0C-DA63-4211-B5D1-DCA05580F768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719ADBD-BCB8-4322-822B-0644655809AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="750" windowWidth="15675" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <t>categorias_etnicas</t>
   </si>
   <si>
-    <t>Etnia</t>
+    <t>r3</t>
   </si>
 </sst>
 </file>
@@ -509,17 +509,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -527,7 +525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -535,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -543,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -551,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -559,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -567,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -575,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -583,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -591,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -599,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -607,7 +605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -615,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -623,7 +621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -631,7 +629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -639,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -655,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -663,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -671,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -679,7 +677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -687,7 +685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -695,7 +693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -703,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -711,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -719,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -727,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
